--- a/public/uploads/excel/5b24bf5fbc0a8c44e06da7f3_claimAdvance.xlsx
+++ b/public/uploads/excel/5b24bf5fbc0a8c44e06da7f3_claimAdvance.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>Total_Transfer</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>HWRAJ</t>
+  </si>
+  <si>
+    <t>HWKTK</t>
   </si>
 </sst>
 </file>
@@ -67,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="10" customWidth="1"/>
@@ -437,6 +453,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25569.00049503472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25569.00049503472</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25569.00049503472</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
